--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arena\projeto_python\myplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14565B1-E0D6-4B29-9040-B4E4E3D54522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC6369A-44A2-492A-ABB8-FFC90F094D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{23617D62-9424-4289-9D17-5B6DEC40F341}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="154">
   <si>
     <t>CM_NOM_FUN</t>
   </si>
@@ -42,100 +42,451 @@
     <t>Colaborador</t>
   </si>
   <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>VENDEDOR</t>
+  </si>
+  <si>
+    <t>MOTORISTA</t>
+  </si>
+  <si>
     <t>VENDEDORA</t>
   </si>
   <si>
-    <t>DAIANE DA SILVA PRADO BARBOSA</t>
-  </si>
-  <si>
-    <t>DANIEL FREITAS DOS SANTOS</t>
-  </si>
-  <si>
-    <t>DAVID CAVALARI LIVOTTO JUNIOR</t>
-  </si>
-  <si>
-    <t>DEISE VITORELO GONCALVES</t>
-  </si>
-  <si>
-    <t>DENILSON CONCEIÇÃO DOS SANTOS</t>
-  </si>
-  <si>
-    <t>DENILSON JOSÉ DE SANTANA OLIVEIRA</t>
-  </si>
-  <si>
-    <t>DOUGLAS DOS SANTOS</t>
-  </si>
-  <si>
-    <t>44661925882</t>
-  </si>
-  <si>
-    <t>43441856848</t>
-  </si>
-  <si>
-    <t>42380479828</t>
-  </si>
-  <si>
-    <t>24942930812</t>
-  </si>
-  <si>
-    <t>86477334526</t>
-  </si>
-  <si>
-    <t>08073792559</t>
-  </si>
-  <si>
-    <t>33655956860</t>
-  </si>
-  <si>
-    <t>DAIANE</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAVID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEISE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DENILSON </t>
-  </si>
-  <si>
-    <t>DENILSON.JOSE</t>
-  </si>
-  <si>
-    <t>DOUGLAS</t>
-  </si>
-  <si>
     <t>AUXILIAR DE ESTOQUE</t>
   </si>
   <si>
-    <t>ANALISTA DE MIDIAS SOCIAIS</t>
-  </si>
-  <si>
     <t>GERENTE</t>
   </si>
   <si>
     <t>ENCARREGADO DE ESTOQUE ..</t>
   </si>
   <si>
-    <t>DURVAL CAEL DA SILVA JUNIOR</t>
-  </si>
-  <si>
-    <t>DURVAL</t>
-  </si>
-  <si>
-    <t>EDENILSON SILVA DO NASCIMENTO</t>
-  </si>
-  <si>
-    <t>EDER MATIAS DE LIMA</t>
-  </si>
-  <si>
-    <t>EDENILSON</t>
-  </si>
-  <si>
-    <t>MATIAS</t>
+    <t>recursos humanos</t>
+  </si>
+  <si>
+    <t>JOAO VITOR PAIXÃO GONÇALVES</t>
+  </si>
+  <si>
+    <t>JOELMA CRISTOVÃO DA SILVA</t>
+  </si>
+  <si>
+    <t>JORGE LUCAS OLIVEIRA CARMO</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL TEIGA JUNIOR</t>
+  </si>
+  <si>
+    <t>JOSE WILLIAN BISPO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>JULIA VIEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>KAUAN HENRIQUE MONTEIRO SANTOS</t>
+  </si>
+  <si>
+    <t>KELLY CRISTINA SOUZA DA SILVA</t>
+  </si>
+  <si>
+    <t>KEVESON NATAEL BRAGA BARRETO</t>
+  </si>
+  <si>
+    <t>LEANDRO BERTALO</t>
+  </si>
+  <si>
+    <t>LETICIA DE OLIVEIRA SILVA</t>
+  </si>
+  <si>
+    <t>LIDIANE MACEDO DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>LOURIVAL CAVICCHIOLI</t>
+  </si>
+  <si>
+    <t>LUIZ ANTONIO DA SILVA</t>
+  </si>
+  <si>
+    <t>MADSON OLIVEIRA PEREIRA</t>
+  </si>
+  <si>
+    <t>MARCELO DA COSTA MOLINARI</t>
+  </si>
+  <si>
+    <t>MARCOS PAULO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>MARCOS VINICIUS VERGILIO DE CARVALHO</t>
+  </si>
+  <si>
+    <t>MATEUS DE SÁ VASCONCELOS</t>
+  </si>
+  <si>
+    <t>MICAEL SILVA COSTA</t>
+  </si>
+  <si>
+    <t>NATALIA FONSECA RIBEIRO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>NATHAN DA SILVA SANTOS</t>
+  </si>
+  <si>
+    <t>RENAN DANTAS DE ALMEIDA</t>
+  </si>
+  <si>
+    <t>RIAN GUSTAVO XAVIER AGOSTINHO</t>
+  </si>
+  <si>
+    <t>ROBSON LUIZ OLIVEIRA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>RODRIGO CURCINO DIONISIO</t>
+  </si>
+  <si>
+    <t>ROGERIO CLAUDINO DE SOUSA</t>
+  </si>
+  <si>
+    <t>RONILDO RODRIGUES DOS SANTOS</t>
+  </si>
+  <si>
+    <t>RUI KENNEDY SANTOS DA SILVA</t>
+  </si>
+  <si>
+    <t>SHIRLEY CALLEGARI DE OLIVEIRA SANTOS</t>
+  </si>
+  <si>
+    <t>TADEU SOUZA DE JESUS</t>
+  </si>
+  <si>
+    <t>TARCITO FERNANDO FEITOSA DA SILVA</t>
+  </si>
+  <si>
+    <t>TAUAN VIEIRA VALENTE</t>
+  </si>
+  <si>
+    <t>THIAGO DOS SANTOS PEREIRA</t>
+  </si>
+  <si>
+    <t>THONY JESUS ARAUJO</t>
+  </si>
+  <si>
+    <t>TIAGO CORREA</t>
+  </si>
+  <si>
+    <t>VALDIR DE JESUS</t>
+  </si>
+  <si>
+    <t>VANESSA ALMEIDA ALVES</t>
+  </si>
+  <si>
+    <t>VIVIANE FERREIRA SANTOS</t>
+  </si>
+  <si>
+    <t>WALLACE DOS SANTOS CARVALHO</t>
+  </si>
+  <si>
+    <t>WALLAN DA SILVA SANTOS</t>
+  </si>
+  <si>
+    <t>WELLINGTON FERNANDO MURADOR</t>
+  </si>
+  <si>
+    <t>WELLINGTON PEREIRA DE LIRA</t>
+  </si>
+  <si>
+    <t>48454327819</t>
+  </si>
+  <si>
+    <t>42514116848</t>
+  </si>
+  <si>
+    <t>23060435820</t>
+  </si>
+  <si>
+    <t>33180058862</t>
+  </si>
+  <si>
+    <t>44671701898</t>
+  </si>
+  <si>
+    <t>41486352812</t>
+  </si>
+  <si>
+    <t>53398588808</t>
+  </si>
+  <si>
+    <t>45585074881</t>
+  </si>
+  <si>
+    <t>01691128295</t>
+  </si>
+  <si>
+    <t>25556050880</t>
+  </si>
+  <si>
+    <t>23090884801</t>
+  </si>
+  <si>
+    <t>01724358383</t>
+  </si>
+  <si>
+    <t>11136433821</t>
+  </si>
+  <si>
+    <t>95574336804</t>
+  </si>
+  <si>
+    <t>46385248852</t>
+  </si>
+  <si>
+    <t>09188572870</t>
+  </si>
+  <si>
+    <t>18621601800</t>
+  </si>
+  <si>
+    <t>41661968805</t>
+  </si>
+  <si>
+    <t>43801451828</t>
+  </si>
+  <si>
+    <t>06920204541</t>
+  </si>
+  <si>
+    <t>44887659806</t>
+  </si>
+  <si>
+    <t>57076792869</t>
+  </si>
+  <si>
+    <t>50064825833</t>
+  </si>
+  <si>
+    <t>50668466898</t>
+  </si>
+  <si>
+    <t>13976348805</t>
+  </si>
+  <si>
+    <t>35204757821</t>
+  </si>
+  <si>
+    <t>10179102435</t>
+  </si>
+  <si>
+    <t>28706879829</t>
+  </si>
+  <si>
+    <t>12798816823</t>
+  </si>
+  <si>
+    <t>32547025817</t>
+  </si>
+  <si>
+    <t>15717124880</t>
+  </si>
+  <si>
+    <t>04287910427</t>
+  </si>
+  <si>
+    <t>43688040821</t>
+  </si>
+  <si>
+    <t>49841636824</t>
+  </si>
+  <si>
+    <t>42523847884</t>
+  </si>
+  <si>
+    <t>41333202806</t>
+  </si>
+  <si>
+    <t>14092435835</t>
+  </si>
+  <si>
+    <t>37883311867</t>
+  </si>
+  <si>
+    <t>29743047883</t>
+  </si>
+  <si>
+    <t>53120202819</t>
+  </si>
+  <si>
+    <t>49559625802</t>
+  </si>
+  <si>
+    <t>33114394817</t>
+  </si>
+  <si>
+    <t>30672725878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOAO.VITOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOELMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JORGE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILLIAN </t>
+  </si>
+  <si>
+    <t>JOSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JULIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAUAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KELLY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEVESON </t>
+  </si>
+  <si>
+    <t>LEANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LETICIA </t>
+  </si>
+  <si>
+    <t>LIDIANE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOURIVAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUIZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCELO </t>
+  </si>
+  <si>
+    <t>MARCOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARCOS.VINICIUS </t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>MATEUS</t>
+  </si>
+  <si>
+    <t>MICAEL</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>NATHAN</t>
+  </si>
+  <si>
+    <t>RENAN</t>
+  </si>
+  <si>
+    <t>RIAN</t>
+  </si>
+  <si>
+    <t>ROBSON</t>
+  </si>
+  <si>
+    <t>RODRIGO</t>
+  </si>
+  <si>
+    <t>ROGERIO</t>
+  </si>
+  <si>
+    <t>RONILDO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUI </t>
+  </si>
+  <si>
+    <t>SHIRLEY</t>
+  </si>
+  <si>
+    <t>TADEU</t>
+  </si>
+  <si>
+    <t>TARCITO</t>
+  </si>
+  <si>
+    <t>TAUAN</t>
+  </si>
+  <si>
+    <t>THIAGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THONY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIAGO </t>
+  </si>
+  <si>
+    <t>VALDIR</t>
+  </si>
+  <si>
+    <t>VANESSA</t>
+  </si>
+  <si>
+    <t>VIVIANE</t>
+  </si>
+  <si>
+    <t>WALLACE</t>
+  </si>
+  <si>
+    <t>WALLAN</t>
+  </si>
+  <si>
+    <t>WELLINGTON</t>
+  </si>
+  <si>
+    <t>016911</t>
+  </si>
+  <si>
+    <t>01724</t>
+  </si>
+  <si>
+    <t>091885</t>
+  </si>
+  <si>
+    <t>069202</t>
+  </si>
+  <si>
+    <t>042879</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AUXILIAR DE LIMPEZA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VENDEDORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANALISTA FINANCEIRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COORDENADOR DE RH</t>
+  </si>
+  <si>
+    <t>COORDENADOR FINANCEIRO</t>
+  </si>
+  <si>
+    <t>DESENVOLVEDOR WEB FULL STACK</t>
+  </si>
+  <si>
+    <t>WELLINGTON.FERNANDO</t>
   </si>
 </sst>
 </file>
@@ -240,7 +591,6 @@
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -249,14 +599,15 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -571,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778A26CD-E052-4D47-8810-C437FB70F002}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,250 +934,955 @@
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="10" customWidth="1"/>
     <col min="7" max="7" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="15">
+        <v>36630</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="13">
+        <v>484543</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="16">
+        <v>30355</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="14">
+        <v>425141</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="15">
+        <v>32411</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="13">
+        <v>230604</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="16">
+        <v>31237</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="14">
+        <v>331800</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="15">
+        <v>34974</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="13">
+        <v>446717</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="16">
+        <v>33792</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="14">
+        <v>414863</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="15">
+        <v>37761</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="13">
+        <v>533985</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="8">
+        <v>44144</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="14">
+        <v>455850</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="7">
+        <v>44309</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="8">
+        <v>42745</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="14">
+        <v>255560</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="15">
+        <v>31480</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="13">
+        <v>230908</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="16">
+        <v>28381</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="15">
+        <v>30180</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="13">
+        <v>111364</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="15">
+        <v>35732</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="13">
+        <v>955743</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="16">
+        <v>27822</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="14">
+        <v>463852</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="16">
+        <v>24992</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="15">
+        <v>27066</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="13">
+        <v>186216</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="16">
+        <v>34071</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="14">
+        <v>416619</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="15">
+        <v>34752</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="13">
+        <v>438014</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="16">
+        <v>34317</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="15">
+        <v>33946</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="13">
+        <v>448876</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="16">
+        <v>36929</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="14">
+        <v>570767</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="15">
+        <v>36808</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="13">
+        <v>500648</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="16">
+        <v>37379</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="14">
+        <v>506684</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="15">
+        <v>25506</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="13">
+        <v>139763</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="16">
+        <v>32095</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F27" s="14">
+        <v>352047</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="15">
+        <v>31769</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="13">
+        <v>101791</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="16">
+        <v>29083</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" s="14">
+        <v>287068</v>
+      </c>
+      <c r="G29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="15">
+        <v>25556</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="13">
+        <v>127988</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="16">
+        <v>30390</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="14">
+        <v>325470</v>
+      </c>
+      <c r="G31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="15">
+        <v>27347</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="13">
+        <v>157171</v>
+      </c>
+      <c r="G32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="16">
+        <v>27419</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="15">
+        <v>34787</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="13">
+        <v>436880</v>
+      </c>
+      <c r="G34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="16">
+        <v>37000</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F35" s="14">
+        <v>498416</v>
+      </c>
+      <c r="G35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>44661925882</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="12">
-        <v>446619</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="6">
-        <v>43441856848</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="11">
-        <v>434418</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="5">
-        <v>42380479828</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="12">
-        <v>423804</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C36" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="15">
+        <v>34042</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="13">
+        <v>425238</v>
+      </c>
+      <c r="G36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="16">
+        <v>34220</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="14">
+        <v>413332</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="15">
+        <v>25857</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" s="13">
+        <v>140924</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="16">
+        <v>33163</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="14">
+        <v>378833</v>
+      </c>
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="15">
+        <v>30142</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="13">
+        <v>297430</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="16">
+        <v>37463</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="14">
+        <v>531202</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6">
-        <v>24942930812</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="11">
-        <v>249429</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="5">
-        <v>86477334526</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="13">
-        <v>864773</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="6">
-        <v>8073792559</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="13">
-        <v>807379</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="5">
-        <v>33655956860</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="13">
-        <v>336559</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="16">
-        <v>28590968847</v>
-      </c>
-      <c r="D9" s="9">
-        <v>44144</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="13">
-        <v>285909</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="18">
-        <v>14129348426</v>
-      </c>
-      <c r="D10" s="8">
-        <v>44309</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="13">
-        <v>141293</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="16">
-        <v>28893432862</v>
-      </c>
-      <c r="D11" s="9">
-        <v>42745</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="13">
-        <v>288934</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>29</v>
+      <c r="C42" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="15">
+        <v>37351</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F42" s="13">
+        <v>495596</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="16">
+        <v>31401</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43" s="14">
+        <v>331143</v>
+      </c>
+      <c r="G43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="15">
+        <v>30101</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="13">
+        <v>306727</v>
+      </c>
+      <c r="G44" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arena\projeto_python\myplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC6369A-44A2-492A-ABB8-FFC90F094D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7786A59C-FF2E-44CD-8675-4B142880A5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{23617D62-9424-4289-9D17-5B6DEC40F341}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="258">
   <si>
     <t>CM_NOM_FUN</t>
   </si>
@@ -487,6 +487,318 @@
   </si>
   <si>
     <t>WELLINGTON.FERNANDO</t>
+  </si>
+  <si>
+    <t>ANE CAROLINE DUARTE D OLIVEIRA SANTOS</t>
+  </si>
+  <si>
+    <t>ANTHONY AEBERSOLD</t>
+  </si>
+  <si>
+    <t>ANTONIO DE SOUSA ESTEVÃO</t>
+  </si>
+  <si>
+    <t>BRUNO NASCIMENTO BICUDO</t>
+  </si>
+  <si>
+    <t>CAIQUE DA SILVA FERNANDES</t>
+  </si>
+  <si>
+    <t>CAMILA EVELIN DA SILVA SOUZA</t>
+  </si>
+  <si>
+    <t>CARLOS MIGUEL RIBEIRO DE SOUZA</t>
+  </si>
+  <si>
+    <t>CAROLINE CARDOSO DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>CHRISTIAN CONDE</t>
+  </si>
+  <si>
+    <t>CINTIA MEIRE HELEN ROSA</t>
+  </si>
+  <si>
+    <t>CLAUDINEI PEREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>CLEBER HENRIQUE ORTEGA ANTONIO</t>
+  </si>
+  <si>
+    <t>DAIANE DA SILVA PRADO BARBOSA</t>
+  </si>
+  <si>
+    <t>DANIEL FREITAS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>DAVID CAVALARI LIVOTTO JUNIOR</t>
+  </si>
+  <si>
+    <t>DEISE VITORELO GONCALVES</t>
+  </si>
+  <si>
+    <t>DENILSON CONCEIÇÃO DOS SANTOS</t>
+  </si>
+  <si>
+    <t>DENILSON JOSÉ DE SANTANA OLIVEIRA</t>
+  </si>
+  <si>
+    <t>DOUGLAS DOS SANTOS</t>
+  </si>
+  <si>
+    <t>DURVAL CAEL DA SILVA JUNIOR</t>
+  </si>
+  <si>
+    <t>EDENILSON SILVA DO NASCIMENTO</t>
+  </si>
+  <si>
+    <t>EDER MATIAS DE LIMA</t>
+  </si>
+  <si>
+    <t>ELTON RICARDO GONÇALVES</t>
+  </si>
+  <si>
+    <t>FELIPE HONORATO DE MENEZES</t>
+  </si>
+  <si>
+    <t>FRANCISCO AMANCIO DA SILVA JUNIOR</t>
+  </si>
+  <si>
+    <t>FRANCISCO KLEBERSON PEREIRA MACIEL</t>
+  </si>
+  <si>
+    <t>FREDERICO CARDOSO SILVA</t>
+  </si>
+  <si>
+    <t>GABRIEL DA CRUZ BIANO</t>
+  </si>
+  <si>
+    <t>GERALDO RODRIGUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GISELE APARECIDA DE OLIVEIRA RODRIGUES </t>
+  </si>
+  <si>
+    <t>HELLIEL HENRIQUE FERREIRA</t>
+  </si>
+  <si>
+    <t>HUGO CAMPOS DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>IGOR PARDINHO LIMA</t>
+  </si>
+  <si>
+    <t>IVAN CARLOS MAGALHAES DA SILVA</t>
+  </si>
+  <si>
+    <t>JEFFERSON DE FARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESSICA CHRISTINA DA SILVA DE MESQUITA </t>
+  </si>
+  <si>
+    <t>41376786850</t>
+  </si>
+  <si>
+    <t>71619246180</t>
+  </si>
+  <si>
+    <t>46721416832</t>
+  </si>
+  <si>
+    <t>43138056806</t>
+  </si>
+  <si>
+    <t>35378503876</t>
+  </si>
+  <si>
+    <t>39106891837</t>
+  </si>
+  <si>
+    <t>25510545836</t>
+  </si>
+  <si>
+    <t>30422005827</t>
+  </si>
+  <si>
+    <t>04046256818</t>
+  </si>
+  <si>
+    <t>37177934898</t>
+  </si>
+  <si>
+    <t>44661925882</t>
+  </si>
+  <si>
+    <t>43441856848</t>
+  </si>
+  <si>
+    <t>42380479828</t>
+  </si>
+  <si>
+    <t>24942930812</t>
+  </si>
+  <si>
+    <t>86477334526</t>
+  </si>
+  <si>
+    <t>08073792559</t>
+  </si>
+  <si>
+    <t>33655956860</t>
+  </si>
+  <si>
+    <t>28590968847</t>
+  </si>
+  <si>
+    <t>14129348426</t>
+  </si>
+  <si>
+    <t>28893432862</t>
+  </si>
+  <si>
+    <t>94874972349</t>
+  </si>
+  <si>
+    <t>29604337858</t>
+  </si>
+  <si>
+    <t>30464611865</t>
+  </si>
+  <si>
+    <t>32204673854</t>
+  </si>
+  <si>
+    <t>44724980818</t>
+  </si>
+  <si>
+    <t>25587150895</t>
+  </si>
+  <si>
+    <t>28650049885</t>
+  </si>
+  <si>
+    <t>45008369857</t>
+  </si>
+  <si>
+    <t>33775057846</t>
+  </si>
+  <si>
+    <t>51924848805</t>
+  </si>
+  <si>
+    <t>31896620884</t>
+  </si>
+  <si>
+    <t>35740665892</t>
+  </si>
+  <si>
+    <t>40750911808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTHONY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTONIO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRUNO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIQUE </t>
+  </si>
+  <si>
+    <t>CAMILA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS </t>
+  </si>
+  <si>
+    <t>CAROLINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHRISTIAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CINTIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLAUDINEI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLEBER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAIANE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAVID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEISE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENILSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOUGLAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DURVAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDENILSON </t>
+  </si>
+  <si>
+    <t>MATIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELTON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FELIPE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRANCISCO </t>
+  </si>
+  <si>
+    <t>FRANCISCO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FREDERICO </t>
+  </si>
+  <si>
+    <t>GABRIEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GERALDO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GISELE  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HELLIEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGOR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JEFFERSON </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JESSICA  </t>
   </si>
 </sst>
 </file>
@@ -922,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778A26CD-E052-4D47-8810-C437FB70F002}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,7 +2197,404 @@
         <v>4</v>
       </c>
     </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="13">
+        <v>28258825852</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="14">
+        <v>33450191837</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="14">
+        <v>34159364810</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="120" verticalDpi="144" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arena\projeto_python\myplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7786A59C-FF2E-44CD-8675-4B142880A5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFCAF2E-16B8-4598-9A1C-49940C9CEE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{23617D62-9424-4289-9D17-5B6DEC40F341}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="191">
   <si>
     <t>CM_NOM_FUN</t>
   </si>
@@ -510,6 +510,9 @@
     <t>CARLOS MIGUEL RIBEIRO DE SOUZA</t>
   </si>
   <si>
+    <t>CAROLINA AZEVEDO DA SILVA</t>
+  </si>
+  <si>
     <t>CAROLINE CARDOSO DE OLIVEIRA</t>
   </si>
   <si>
@@ -595,210 +598,6 @@
   </si>
   <si>
     <t xml:space="preserve">JESSICA CHRISTINA DA SILVA DE MESQUITA </t>
-  </si>
-  <si>
-    <t>41376786850</t>
-  </si>
-  <si>
-    <t>71619246180</t>
-  </si>
-  <si>
-    <t>46721416832</t>
-  </si>
-  <si>
-    <t>43138056806</t>
-  </si>
-  <si>
-    <t>35378503876</t>
-  </si>
-  <si>
-    <t>39106891837</t>
-  </si>
-  <si>
-    <t>25510545836</t>
-  </si>
-  <si>
-    <t>30422005827</t>
-  </si>
-  <si>
-    <t>04046256818</t>
-  </si>
-  <si>
-    <t>37177934898</t>
-  </si>
-  <si>
-    <t>44661925882</t>
-  </si>
-  <si>
-    <t>43441856848</t>
-  </si>
-  <si>
-    <t>42380479828</t>
-  </si>
-  <si>
-    <t>24942930812</t>
-  </si>
-  <si>
-    <t>86477334526</t>
-  </si>
-  <si>
-    <t>08073792559</t>
-  </si>
-  <si>
-    <t>33655956860</t>
-  </si>
-  <si>
-    <t>28590968847</t>
-  </si>
-  <si>
-    <t>14129348426</t>
-  </si>
-  <si>
-    <t>28893432862</t>
-  </si>
-  <si>
-    <t>94874972349</t>
-  </si>
-  <si>
-    <t>29604337858</t>
-  </si>
-  <si>
-    <t>30464611865</t>
-  </si>
-  <si>
-    <t>32204673854</t>
-  </si>
-  <si>
-    <t>44724980818</t>
-  </si>
-  <si>
-    <t>25587150895</t>
-  </si>
-  <si>
-    <t>28650049885</t>
-  </si>
-  <si>
-    <t>45008369857</t>
-  </si>
-  <si>
-    <t>33775057846</t>
-  </si>
-  <si>
-    <t>51924848805</t>
-  </si>
-  <si>
-    <t>31896620884</t>
-  </si>
-  <si>
-    <t>35740665892</t>
-  </si>
-  <si>
-    <t>40750911808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTHONY </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTONIO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRUNO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAIQUE </t>
-  </si>
-  <si>
-    <t>CAMILA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS </t>
-  </si>
-  <si>
-    <t>CAROLINE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHRISTIAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CINTIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLAUDINEI </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLEBER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAIANE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DANIEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAVID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEISE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DENILSON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOUGLAS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DURVAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDENILSON </t>
-  </si>
-  <si>
-    <t>MATIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELTON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FELIPE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRANCISCO </t>
-  </si>
-  <si>
-    <t>FRANCISCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FREDERICO </t>
-  </si>
-  <si>
-    <t>GABRIEL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GERALDO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GISELE  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HELLIEL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUGO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGOR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVAN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JEFFERSON </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JESSICA  </t>
   </si>
 </sst>
 </file>
@@ -1234,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778A26CD-E052-4D47-8810-C437FB70F002}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,396 +2000,185 @@
       <c r="A45" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="13">
-        <v>28258825852</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="14">
-        <v>33450191837</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C49" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C50" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C51" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C60" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C62" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C67" s="14">
-        <v>34159364810</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C68" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C70" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C71" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C73" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C75" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C76" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C77" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C79" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C80" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>257</v>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
